--- a/data/trans_orig/IP08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{774ECBB8-B171-4FFB-867F-0EB7E97356C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{361CE39C-F457-4C5C-826C-63833A04F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F82BAB7-05D9-41F3-9719-5998A3628C6C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2896379E-E931-4829-9A35-645739F70350}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
   <si>
     <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -104,841 +104,853 @@
     <t>11,94%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>8,6%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>10,23%</t>
   </si>
   <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>93,21%</t>
   </si>
   <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>83,63%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>84,81%</t>
+    <t>84,85%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>10,93%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{833D3D0A-5D03-4493-A7BA-48E005ED34E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AF86E-FE9B-4BB9-8CE4-21D8CB91E548}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2251,7 +2263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC08846-E7D9-4823-913D-1A8D7588A697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F025832-CD90-4624-902C-28A7C2EEB681}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2527,10 +2539,10 @@
         <v>96</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2539,13 +2551,13 @@
         <v>12746</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -2554,13 +2566,13 @@
         <v>24297</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,28 +2587,28 @@
         <v>74641</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H8" s="7">
         <v>115</v>
       </c>
       <c r="I8" s="7">
-        <v>79622</v>
+        <v>79623</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>220</v>
@@ -2605,13 +2617,13 @@
         <v>154264</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2650,7 @@
         <v>134</v>
       </c>
       <c r="I9" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>18</v>
@@ -2679,13 +2691,13 @@
         <v>70395</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>80</v>
@@ -2694,13 +2706,13 @@
         <v>54883</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>180</v>
@@ -2709,13 +2721,13 @@
         <v>125278</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,13 +2742,13 @@
         <v>424051</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>575</v>
@@ -2745,13 +2757,13 @@
         <v>397327</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1183</v>
@@ -2760,13 +2772,13 @@
         <v>821378</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2846,13 @@
         <v>20474</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -2849,13 +2861,13 @@
         <v>15240</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
@@ -2864,13 +2876,13 @@
         <v>35714</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2897,13 @@
         <v>151754</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -2900,13 +2912,13 @@
         <v>150838</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -2915,13 +2927,13 @@
         <v>302593</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +3001,13 @@
         <v>102419</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>122</v>
@@ -3004,13 +3016,13 @@
         <v>82869</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -3019,13 +3031,13 @@
         <v>185289</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3052,13 @@
         <v>651088</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H17" s="7">
         <v>902</v>
@@ -3055,13 +3067,13 @@
         <v>627788</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M17" s="7">
         <v>1832</v>
@@ -3070,13 +3082,13 @@
         <v>1278875</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3152,7 +3164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22752C46-0B8A-478B-9742-855DACBA3D45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C101E19-97D1-4B24-9095-25C38DC18496}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3169,7 +3181,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3413,13 +3425,13 @@
         <v>2773</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -3428,13 +3440,13 @@
         <v>4449</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3443,13 +3455,13 @@
         <v>7222</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3476,13 @@
         <v>65841</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H8" s="7">
         <v>82</v>
@@ -3479,10 +3491,10 @@
         <v>54929</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>181</v>
@@ -3753,13 +3765,13 @@
         <v>21756</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,13 +3786,13 @@
         <v>176657</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>239</v>
@@ -3789,13 +3801,13 @@
         <v>160205</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>494</v>
@@ -3804,13 +3816,13 @@
         <v>336862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3890,13 @@
         <v>51447</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -3893,13 +3905,13 @@
         <v>47647</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>147</v>
@@ -3908,13 +3920,13 @@
         <v>99093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3941,13 @@
         <v>690325</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>985</v>
@@ -3944,13 +3956,13 @@
         <v>654581</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M17" s="7">
         <v>1972</v>
@@ -3959,13 +3971,13 @@
         <v>1344907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,7 +4053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46896B-9E9C-422F-A8ED-701C4B4A7DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE499B5-72BD-4EC9-8DA1-A4CC0E6F9B87}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4058,7 +4070,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4314,13 +4326,13 @@
         <v>9787</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -4329,13 +4341,13 @@
         <v>6121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>22</v>
@@ -4344,13 +4356,13 @@
         <v>15909</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,13 +4377,13 @@
         <v>48970</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H8" s="7">
         <v>62</v>
@@ -4380,13 +4392,13 @@
         <v>45081</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -4395,13 +4407,13 @@
         <v>94050</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4481,13 @@
         <v>58842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -4484,13 +4496,13 @@
         <v>37898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>135</v>
@@ -4499,13 +4511,13 @@
         <v>96739</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4520,13 +4532,13 @@
         <v>431309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H11" s="7">
         <v>585</v>
@@ -4535,13 +4547,13 @@
         <v>410762</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M11" s="7">
         <v>1160</v>
@@ -4550,13 +4562,13 @@
         <v>842072</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4636,13 @@
         <v>20923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
@@ -4639,13 +4651,13 @@
         <v>16857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -4654,13 +4666,13 @@
         <v>37780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,13 +4687,13 @@
         <v>153660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -4690,13 +4702,13 @@
         <v>134513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>416</v>
@@ -4705,13 +4717,13 @@
         <v>288172</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4791,13 @@
         <v>89551</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>89</v>
@@ -4794,13 +4806,13 @@
         <v>60876</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M16" s="7">
         <v>209</v>
@@ -4809,13 +4821,13 @@
         <v>150428</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4842,13 @@
         <v>633940</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>852</v>
@@ -4845,13 +4857,13 @@
         <v>591527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M17" s="7">
         <v>1707</v>
@@ -4860,13 +4872,13 @@
         <v>1225466</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP08-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{361CE39C-F457-4C5C-826C-63833A04F13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB52ECB-2EC0-400C-95A3-144526CBEAA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2896379E-E931-4829-9A35-645739F70350}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6A9B372F-164A-4442-97B1-047A2BD655C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="304">
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2007 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,889 +68,874 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>9,08%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
   </si>
   <si>
     <t>86,38%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
+    <t>90,44%</t>
   </si>
   <si>
     <t>90,04%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
   </si>
   <si>
     <t>86,6%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
   </si>
   <si>
     <t>14,24%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
   </si>
   <si>
     <t>85,76%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>86,77%</t>
   </si>
   <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>8,07%</t>
   </si>
   <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
 </sst>
 </file>
@@ -1362,8 +1347,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55AF86E-FE9B-4BB9-8CE4-21D8CB91E548}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8250CF-F67F-4098-BDEC-A72BF55C185B}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1480,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>7818</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1495,81 +1480,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10367</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>18185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>83049</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="I5" s="7">
+        <v>76478</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>159527</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,151 +1567,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>10367</v>
+        <v>30560</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>7818</v>
+        <v>53441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
-        <v>18185</v>
+        <v>84000</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>115</v>
+        <v>582</v>
       </c>
       <c r="D8" s="7">
-        <v>76477</v>
+        <v>385527</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>125</v>
+        <v>638</v>
       </c>
       <c r="I8" s="7">
-        <v>83049</v>
+        <v>422855</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>240</v>
+        <v>1220</v>
       </c>
       <c r="N8" s="7">
-        <v>159527</v>
+        <v>808383</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,153 +1722,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>718</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476296</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1346</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>892383</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>53441</v>
+        <v>17866</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>30560</v>
+        <v>19670</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="N10" s="7">
-        <v>84000</v>
+        <v>37536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>638</v>
+        <v>228</v>
       </c>
       <c r="D11" s="7">
-        <v>422855</v>
+        <v>156200</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>582</v>
+        <v>207</v>
       </c>
       <c r="I11" s="7">
-        <v>385527</v>
+        <v>138468</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M11" s="7">
-        <v>1220</v>
+        <v>435</v>
       </c>
       <c r="N11" s="7">
-        <v>808384</v>
+        <v>294669</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,153 +1877,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>718</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476296</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1346</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>892384</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>19670</v>
+        <v>56243</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="I13" s="7">
-        <v>17866</v>
+        <v>83478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
-        <v>55</v>
+        <v>207</v>
       </c>
       <c r="N13" s="7">
-        <v>37536</v>
+        <v>139721</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>207</v>
+        <v>935</v>
       </c>
       <c r="D14" s="7">
-        <v>138468</v>
+        <v>624778</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>228</v>
+        <v>960</v>
       </c>
       <c r="I14" s="7">
-        <v>156200</v>
+        <v>637801</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>435</v>
+        <v>1895</v>
       </c>
       <c r="N14" s="7">
-        <v>294669</v>
+        <v>1262579</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2041,216 +2032,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1084</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721279</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2102</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402300</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>124</v>
-      </c>
-      <c r="D16" s="7">
-        <v>83478</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>83</v>
-      </c>
-      <c r="I16" s="7">
-        <v>56243</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>207</v>
-      </c>
-      <c r="N16" s="7">
-        <v>139721</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>961</v>
-      </c>
-      <c r="D17" s="7">
-        <v>638527</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17" s="7">
-        <v>935</v>
-      </c>
-      <c r="I17" s="7">
-        <v>624778</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1896</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1263305</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1085</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722005</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2103</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403026</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2263,8 +2098,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F025832-CD90-4624-902C-28A7C2EEB681}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5881153-216B-49D1-9EC1-86CE8406770D}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2280,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2381,96 +2216,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12746</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="I4" s="7">
+        <v>11551</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>24297</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>79623</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>105</v>
+      </c>
+      <c r="I5" s="7">
+        <v>74641</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>154264</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,151 +2318,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>92369</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86192</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>178561</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7">
-        <v>11551</v>
+        <v>54883</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I7" s="7">
-        <v>12746</v>
+        <v>70395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="N7" s="7">
-        <v>24297</v>
+        <v>125278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>105</v>
+        <v>575</v>
       </c>
       <c r="D8" s="7">
-        <v>74641</v>
+        <v>397327</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>115</v>
+        <v>608</v>
       </c>
       <c r="I8" s="7">
-        <v>79623</v>
+        <v>424051</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
-        <v>220</v>
+        <v>1183</v>
       </c>
       <c r="N8" s="7">
-        <v>154264</v>
+        <v>821378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,153 +2473,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>121</v>
+        <v>655</v>
       </c>
       <c r="D9" s="7">
-        <v>86192</v>
+        <v>452210</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>134</v>
+        <v>708</v>
       </c>
       <c r="I9" s="7">
-        <v>92369</v>
+        <v>494446</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>255</v>
+        <v>1363</v>
       </c>
       <c r="N9" s="7">
-        <v>178561</v>
+        <v>946656</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>70395</v>
+        <v>15240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>54883</v>
+        <v>20474</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="N10" s="7">
-        <v>125278</v>
+        <v>35714</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>608</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7">
-        <v>424051</v>
+        <v>150838</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>575</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>397327</v>
+        <v>151754</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
-        <v>1183</v>
+        <v>428</v>
       </c>
       <c r="N11" s="7">
-        <v>821378</v>
+        <v>302593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,153 +2628,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>708</v>
+        <v>235</v>
       </c>
       <c r="D12" s="7">
-        <v>494446</v>
+        <v>166078</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>655</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>452210</v>
+        <v>172228</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1363</v>
+        <v>479</v>
       </c>
       <c r="N12" s="7">
-        <v>946656</v>
+        <v>338307</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="D13" s="7">
-        <v>20474</v>
+        <v>82869</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="I13" s="7">
-        <v>15240</v>
+        <v>102419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
-        <v>51</v>
+        <v>266</v>
       </c>
       <c r="N13" s="7">
-        <v>35714</v>
+        <v>185289</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>902</v>
       </c>
       <c r="D14" s="7">
-        <v>151754</v>
+        <v>627788</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>929</v>
       </c>
       <c r="I14" s="7">
-        <v>150838</v>
+        <v>650447</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
-        <v>428</v>
+        <v>1831</v>
       </c>
       <c r="N14" s="7">
-        <v>302593</v>
+        <v>1278234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,216 +2783,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>244</v>
+        <v>1024</v>
       </c>
       <c r="D15" s="7">
-        <v>172228</v>
+        <v>710657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>235</v>
+        <v>1073</v>
       </c>
       <c r="I15" s="7">
-        <v>166078</v>
+        <v>752866</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>479</v>
+        <v>2097</v>
       </c>
       <c r="N15" s="7">
-        <v>338307</v>
+        <v>1463523</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>144</v>
-      </c>
-      <c r="D16" s="7">
-        <v>102419</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H16" s="7">
-        <v>122</v>
-      </c>
-      <c r="I16" s="7">
-        <v>82869</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="M16" s="7">
-        <v>266</v>
-      </c>
-      <c r="N16" s="7">
-        <v>185289</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>930</v>
-      </c>
-      <c r="D17" s="7">
-        <v>651088</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="7">
-        <v>902</v>
-      </c>
-      <c r="I17" s="7">
-        <v>627788</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1832</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1278875</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D18" s="7">
-        <v>753507</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I18" s="7">
-        <v>710657</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1464164</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3164,8 +2849,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C101E19-97D1-4B24-9095-25C38DC18496}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74560559-75D5-4695-ADE2-7379C7340BAF}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3181,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3282,88 +2967,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4449</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2773</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7222</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54929</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="I5" s="7">
+        <v>65841</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>177</v>
+      </c>
+      <c r="N5" s="7">
+        <v>120771</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,147 +3069,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>2773</v>
+        <v>31600</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="I7" s="7">
-        <v>4449</v>
+        <v>38515</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>69</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="N7" s="7">
-        <v>7222</v>
+        <v>70116</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>95</v>
+        <v>664</v>
       </c>
       <c r="D8" s="7">
-        <v>65841</v>
+        <v>439448</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>82</v>
+        <v>637</v>
       </c>
       <c r="I8" s="7">
-        <v>54929</v>
+        <v>447826</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
-        <v>177</v>
+        <v>1301</v>
       </c>
       <c r="N8" s="7">
-        <v>120771</v>
+        <v>887274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,153 +3224,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>712</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>471048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>692</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>486341</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1404</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>957390</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>38515</v>
+        <v>11597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>31600</v>
+        <v>10159</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>70116</v>
+        <v>21756</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>637</v>
+        <v>239</v>
       </c>
       <c r="D11" s="7">
-        <v>447826</v>
+        <v>160205</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
-        <v>664</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>439448</v>
+        <v>176657</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
-        <v>1301</v>
+        <v>494</v>
       </c>
       <c r="N11" s="7">
-        <v>887274</v>
+        <v>336862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,153 +3379,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>692</v>
+        <v>257</v>
       </c>
       <c r="D12" s="7">
-        <v>486341</v>
+        <v>171802</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>712</v>
+        <v>270</v>
       </c>
       <c r="I12" s="7">
-        <v>471048</v>
+        <v>186816</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1404</v>
+        <v>527</v>
       </c>
       <c r="N12" s="7">
-        <v>957390</v>
+        <v>358618</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D13" s="7">
-        <v>10159</v>
+        <v>47647</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I13" s="7">
-        <v>11597</v>
+        <v>51447</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="N13" s="7">
-        <v>21756</v>
+        <v>99093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>255</v>
+        <v>985</v>
       </c>
       <c r="D14" s="7">
-        <v>176657</v>
+        <v>654581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
-        <v>239</v>
+        <v>987</v>
       </c>
       <c r="I14" s="7">
-        <v>160205</v>
+        <v>690325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
-        <v>494</v>
+        <v>1972</v>
       </c>
       <c r="N14" s="7">
-        <v>336862</v>
+        <v>1344907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,216 +3534,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>270</v>
+        <v>1058</v>
       </c>
       <c r="D15" s="7">
-        <v>186816</v>
+        <v>702228</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>257</v>
+        <v>1061</v>
       </c>
       <c r="I15" s="7">
-        <v>171802</v>
+        <v>741772</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>527</v>
+        <v>2119</v>
       </c>
       <c r="N15" s="7">
-        <v>358618</v>
+        <v>1444000</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7">
-        <v>51447</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H16" s="7">
-        <v>73</v>
-      </c>
-      <c r="I16" s="7">
-        <v>47647</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="M16" s="7">
-        <v>147</v>
-      </c>
-      <c r="N16" s="7">
-        <v>99093</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>987</v>
-      </c>
-      <c r="D17" s="7">
-        <v>690325</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H17" s="7">
-        <v>985</v>
-      </c>
-      <c r="I17" s="7">
-        <v>654581</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1972</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1344907</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D18" s="7">
-        <v>741772</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I18" s="7">
-        <v>702228</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2119</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1444000</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4053,8 +3600,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE499B5-72BD-4EC9-8DA1-A4CC0E6F9B87}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B55A2BB3-3CF0-4960-ADD6-86C982361FB5}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4070,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4171,96 +3718,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>9382</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>10908</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>20290</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>62</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45296</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>51096</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>96392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,151 +3820,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7">
-        <v>9787</v>
+        <v>37573</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="I7" s="7">
-        <v>6121</v>
+        <v>65817</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="N7" s="7">
-        <v>15909</v>
+        <v>103390</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>585</v>
       </c>
       <c r="D8" s="7">
-        <v>48970</v>
+        <v>421678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
-        <v>62</v>
+        <v>575</v>
       </c>
       <c r="I8" s="7">
-        <v>45081</v>
+        <v>448815</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
-        <v>130</v>
+        <v>1160</v>
       </c>
       <c r="N8" s="7">
-        <v>94050</v>
+        <v>870492</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,153 +3975,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459251</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>654</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>514632</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1295</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>973882</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>58842</v>
+        <v>16593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>37898</v>
+        <v>22304</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>96739</v>
+        <v>38897</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>575</v>
+        <v>204</v>
       </c>
       <c r="D11" s="7">
-        <v>431309</v>
+        <v>132958</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="H11" s="7">
-        <v>585</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>410762</v>
+        <v>161045</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
-        <v>1160</v>
+        <v>416</v>
       </c>
       <c r="N11" s="7">
-        <v>842072</v>
+        <v>294003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,153 +4130,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>654</v>
+        <v>230</v>
       </c>
       <c r="D12" s="7">
-        <v>490151</v>
+        <v>149551</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>448660</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1295</v>
+        <v>468</v>
       </c>
       <c r="N12" s="7">
-        <v>938811</v>
+        <v>332900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>20923</v>
+        <v>63548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="I13" s="7">
-        <v>16857</v>
+        <v>99029</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c r="N13" s="7">
-        <v>37780</v>
+        <v>162578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>212</v>
+        <v>851</v>
       </c>
       <c r="D14" s="7">
-        <v>153660</v>
+        <v>599932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>855</v>
       </c>
       <c r="I14" s="7">
-        <v>134513</v>
+        <v>660955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
-        <v>416</v>
+        <v>1706</v>
       </c>
       <c r="N14" s="7">
-        <v>288172</v>
+        <v>1260886</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4732,216 +4285,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>663480</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>230</v>
+        <v>975</v>
       </c>
       <c r="I15" s="7">
-        <v>151370</v>
+        <v>759984</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>468</v>
+        <v>1915</v>
       </c>
       <c r="N15" s="7">
-        <v>325952</v>
+        <v>1423464</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>120</v>
-      </c>
-      <c r="D16" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H16" s="7">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7">
-        <v>60876</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="M16" s="7">
-        <v>209</v>
-      </c>
-      <c r="N16" s="7">
-        <v>150428</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>855</v>
-      </c>
-      <c r="D17" s="7">
-        <v>633940</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H17" s="7">
-        <v>852</v>
-      </c>
-      <c r="I17" s="7">
-        <v>591527</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1707</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1225466</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>975</v>
-      </c>
-      <c r="D18" s="7">
-        <v>723491</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>941</v>
-      </c>
-      <c r="I18" s="7">
-        <v>652403</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1916</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1375894</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
+      <c r="A16" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
